--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -2660,7 +2660,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F193" t="n">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Embotelladora Andina S.A</t>
+          <t>Embotelladora Andina S.A...</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Embotelladora Andina S.A</t>
+          <t>Embotelladora Andina S.A...</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Embotelladora Andina S.A...</t>
+          <t>Embotelladora Andina S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Embotelladora Andina S.A...</t>
+          <t>Embotelladora Andina S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/06/2023</t>
+          <t>05/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/07/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">

--- a/data/Renca.xlsx
+++ b/data/Renca.xlsx
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
